--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.17</v>
+        <v>1.72</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 12:43</t>
+          <t>19/08/2023 03:14</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20/08/2023 13:06</t>
+          <t>20/08/2023 13:03</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.89</v>
+        <v>3.98</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.14</v>
+        <v>3.98</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 12:43</t>
+          <t>19/08/2023 03:14</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gorilla/GfsIGypI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-sunrise/8j5oa9Ep/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.72</v>
+        <v>2.17</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,48 +780,48 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>19/08/2023 03:14</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>19/08/2023 03:14</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:03</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>19/08/2023 03:14</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>3.98</v>
+        <v>3.14</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 03:14</t>
+          <t>19/08/2023 12:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-sunrise/8j5oa9Ep/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gorilla/GfsIGypI/</t>
         </is>
       </c>
     </row>
@@ -3398,6 +3398,98 @@
       <c r="V32" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-gorilla/EqAptSnH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>15/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>15/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>15/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-musanze/xMmAr0iI/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.94</v>
+        <v>6.85</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>6.49</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.02</v>
+        <v>4.52</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.24</v>
+        <v>3.85</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.92</v>
+        <v>1.45</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>APR</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>6.85</v>
+        <v>1.94</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6.49</v>
+        <v>2.18</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.52</v>
+        <v>3.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>3.24</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>3.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.45</v>
+        <v>2.92</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -3490,6 +3490,190 @@
       <c r="V33" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-musanze/xMmAr0iI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45209.625</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-gasogi-united/25OJHo5h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45209.625</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-sunrise/AVRRFPZ4/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>01/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>2.18</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>01/09/2023 04:34</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>01/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>3.53</v>
+        <v>2.92</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.31</v>
+        <v>2.95</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.92</v>
+        <v>3.53</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -3674,6 +3674,98 @@
       <c r="V35" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-sunrise/AVRRFPZ4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45209.75</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>10/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>10/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>10/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-bugesera/G8SNG5Kb/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.92</v>
+        <v>5.84</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>6.85</v>
+        <v>2.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6.49</v>
+        <v>2.12</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.52</v>
+        <v>2.85</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.85</v>
+        <v>2.85</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>2.95</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>01/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
         <v>2.18</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>01/09/2023 04:34</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>01/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T17" t="n">
-        <v>3.53</v>
+        <v>2.92</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.81</v>
+        <v>3.44</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>3.51</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.36</v>
+        <v>2.9</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.95</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.84</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.44</v>
+        <v>6.85</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.51</v>
+        <v>6.49</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.81</v>
+        <v>4.52</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.78</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.54</v>
+        <v>3.23</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.74</v>
+        <v>3.87</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.99</v>
+        <v>2.54</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.23</v>
+        <v>2.54</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.87</v>
+        <v>2.74</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
         </is>
       </c>
     </row>
@@ -3766,6 +3766,282 @@
       <c r="V36" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-bugesera/G8SNG5Kb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>11/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>11/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>11/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.81</v>
+        <v>3.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.57</v>
+        <v>3.51</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.36</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.95</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.84</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Sunrise</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.95</v>
+        <v>3.95</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.53</v>
+        <v>5.84</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.94</v>
+        <v>6.85</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.18</v>
+        <v>6.49</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>4.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.24</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.31</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.92</v>
+        <v>1.45</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.44</v>
+        <v>1.94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.51</v>
+        <v>2.18</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.9</v>
+        <v>3.24</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>3.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>6.85</v>
+        <v>2.18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6.49</v>
+        <v>2.12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.52</v>
+        <v>2.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.85</v>
+        <v>2.85</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>2.95</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -4042,6 +4042,98 @@
       <c r="V39" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45210.75</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>11/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>11/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>11/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>11/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>11/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>11/10/2023 17:24</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-etoile-de-l-est/fZeWCNJN/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,6 +4137,98 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45212.75</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-mukura-victory-sports/KCFzPrV8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.44</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.51</v>
+        <v>2.12</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>2.95</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>3.53</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.84</v>
+        <v>2.92</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>APR</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>6.85</v>
+        <v>3.44</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6.49</v>
+        <v>3.51</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.52</v>
+        <v>2.81</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.92</v>
+        <v>5.84</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.18</v>
+        <v>6.85</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.12</v>
+        <v>6.49</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.85</v>
+        <v>4.52</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.95</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.53</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.99</v>
+        <v>2.54</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.23</v>
+        <v>2.54</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.87</v>
+        <v>2.74</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.78</v>
+        <v>2.97</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.54</v>
+        <v>3.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.74</v>
+        <v>3.87</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.79</v>
+        <v>1.91</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16/09/2023 05:37</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16/09/2023 13:04</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.37</v>
+        <v>3.7</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>16/09/2023 05:37</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-bugesera/tff1pMM5/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-rwamagana-city/Cx5MoWIu/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>2.79</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 05:37</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.11</v>
+        <v>2.73</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.18</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 13:04</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 05:37</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-rwamagana-city/Cx5MoWIu/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-bugesera/tff1pMM5/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,282 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-mukura-victory-sports/KCFzPrV8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:22</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:22</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,98 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45213.75</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:40</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:04</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:40</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-marines/CAfFH0Nr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.57</v>
+        <v>1.95</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 06:44</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 13:07</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.52</v>
+        <v>3.8</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 06:44</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-bugesera/AFkpKAjA/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-marines/byrcH8zT/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>26/08/2023 06:44</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>26/08/2023 13:07</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.77</v>
+        <v>3.7</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.8</v>
+        <v>2.99</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>26/08/2023 06:44</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-marines/byrcH8zT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-as-kigali/hvukJU5G/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.36</v>
+        <v>2.57</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.89</v>
+        <v>3.14</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.99</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-as-kigali/hvukJU5G/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-bugesera/AFkpKAjA/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,282 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-marines/CAfFH0Nr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:01</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4873,6 +4873,98 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:07</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:07</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:07</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-kiyovu/8dzEx2a8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.92</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>25/08/2023 03:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.92</v>
+        <v>2.57</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>25/08/2023 03:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>26/08/2023 13:01</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.64</v>
+        <v>2.45</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>25/08/2023 03:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.64</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etoile-de-l-est/4ErgIlLM/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-bugesera/AFkpKAjA/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,63 +1409,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.62</v>
+        <v>1.92</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>25/08/2023 03:13</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.57</v>
+        <v>1.92</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>25/08/2023 03:13</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 13:01</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.45</v>
+        <v>3.64</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>25/08/2023 03:13</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.52</v>
+        <v>3.64</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-bugesera/AFkpKAjA/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etoile-de-l-est/4ErgIlLM/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>14/10/2023 13:03</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 13:03</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.06</v>
+        <v>4.07</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.3</v>
+        <v>3.29</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
         </is>
       </c>
     </row>
@@ -4962,6 +4962,190 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/police-kiyovu/8dzEx2a8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-musanze/0fFhVJir/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:38</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:38</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:38</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-bugesera/4OTMztUK/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>1.92</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>25/08/2023 03:13</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.57</v>
+        <v>1.92</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>25/08/2023 03:13</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 13:01</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.45</v>
+        <v>3.64</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>25/08/2023 03:13</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>3.64</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>26/08/2023 14:18</t>
+          <t>26/08/2023 11:43</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-bugesera/AFkpKAjA/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etoile-de-l-est/4ErgIlLM/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.95</v>
+        <v>2.57</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>26/08/2023 06:44</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>26/08/2023 13:07</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.8</v>
+        <v>2.52</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>26/08/2023 06:44</t>
+          <t>26/08/2023 14:18</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-marines/byrcH8zT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-bugesera/AFkpKAjA/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 06:44</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 13:07</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.7</v>
+        <v>2.77</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.99</v>
+        <v>3.8</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 06:44</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-as-kigali/hvukJU5G/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-marines/byrcH8zT/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>25/08/2023 03:13</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>25/08/2023 03:13</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 13:01</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>25/08/2023 03:13</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.64</v>
+        <v>2.99</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 11:43</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etoile-de-l-est/4ErgIlLM/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-as-kigali/hvukJU5G/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.91</v>
+        <v>2.79</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 05:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.11</v>
+        <v>2.73</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.18</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 13:04</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 05:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-rwamagana-city/Cx5MoWIu/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-bugesera/tff1pMM5/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.79</v>
+        <v>1.91</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 05:37</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:04</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.37</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 05:37</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-bugesera/tff1pMM5/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-rwamagana-city/Cx5MoWIu/</t>
         </is>
       </c>
     </row>
@@ -2965,34 +2965,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -3000,36 +3000,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.21</v>
+        <v>2.96</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-mukura-victory-sports/8pSINJWk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-etincelles/nyRMMwnd/</t>
         </is>
       </c>
     </row>
@@ -3057,34 +3057,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -3092,36 +3092,36 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.96</v>
+        <v>4.21</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-etincelles/nyRMMwnd/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-mukura-victory-sports/8pSINJWk/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>14/10/2023 13:03</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.07</v>
+        <v>3.06</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 13:03</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.06</v>
+        <v>4.07</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
         </is>
       </c>
     </row>
@@ -5146,6 +5146,282 @@
       <c r="V51" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-bugesera/4OTMztUK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:28</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:28</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:28</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:28</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-apr/rFSQZaqR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.72</v>
+        <v>2.17</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,48 +688,48 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>19/08/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>19/08/2023 03:14</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>19/08/2023 03:14</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:03</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>19/08/2023 03:14</t>
-        </is>
-      </c>
       <c r="T3" t="n">
-        <v>3.98</v>
+        <v>3.14</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 03:14</t>
+          <t>19/08/2023 12:43</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-sunrise/8j5oa9Ep/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gorilla/GfsIGypI/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.17</v>
+        <v>1.72</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19/08/2023 12:43</t>
+          <t>19/08/2023 03:14</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>20/08/2023 13:06</t>
+          <t>20/08/2023 13:03</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.89</v>
+        <v>3.98</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.14</v>
+        <v>3.98</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 12:43</t>
+          <t>19/08/2023 03:14</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gorilla/GfsIGypI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-sunrise/8j5oa9Ep/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>01/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>2.18</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>01/09/2023 04:34</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>01/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>3.53</v>
+        <v>2.92</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>2.95</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.92</v>
+        <v>3.53</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-etincelles/nyRMMwnd/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gasogi-united/j9XDOaHq/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.2</v>
+        <v>2.77</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gasogi-united/j9XDOaHq/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-etincelles/nyRMMwnd/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 13:03</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>14/10/2023 13:03</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.66</v>
+        <v>1.97</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.04</v>
+        <v>2.07</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.87</v>
+        <v>3.49</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -5422,6 +5422,650 @@
       <c r="V54" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:39</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-marines/rFldkuqE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45226.75</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>26/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-etoile-de-l-est/dIh0labK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-amagaju/juh4mJDQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-etincelles/hlvWrwMs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:46</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>29/10/2023 04:30</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>29/10/2023 04:30</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>2.95</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.92</v>
+        <v>3.53</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>01/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>2.18</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>01/09/2023 04:34</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>01/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>3.53</v>
+        <v>2.92</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.44</v>
+        <v>6.85</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.51</v>
+        <v>6.49</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.81</v>
+        <v>4.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>APR</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>6.85</v>
+        <v>3.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6.49</v>
+        <v>3.51</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.52</v>
+        <v>2.81</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.4</v>
+        <v>4.21</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 14:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gasogi-united/j9XDOaHq/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-mukura-victory-sports/8pSINJWk/</t>
         </is>
       </c>
     </row>
@@ -3057,34 +3057,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -3092,36 +3092,36 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>29/09/2023 02:13</t>
+          <t>30/09/2023 12:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.21</v>
+        <v>2.96</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/09/2023 14:03</t>
+          <t>30/09/2023 14:35</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-mukura-victory-sports/8pSINJWk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-etincelles/nyRMMwnd/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>30/09/2023 12:43</t>
+          <t>29/09/2023 02:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/09/2023 14:35</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-etincelles/nyRMMwnd/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gasogi-united/j9XDOaHq/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.66</v>
+        <v>1.97</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.04</v>
+        <v>2.07</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.87</v>
+        <v>3.49</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,374 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:04</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:35</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:02</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:35</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.17</v>
+        <v>1.72</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19/08/2023 12:43</t>
+          <t>19/08/2023 03:14</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20/08/2023 13:06</t>
+          <t>20/08/2023 13:03</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.89</v>
+        <v>3.98</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.14</v>
+        <v>3.98</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19/08/2023 12:43</t>
+          <t>19/08/2023 03:14</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gorilla/GfsIGypI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-sunrise/8j5oa9Ep/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.72</v>
+        <v>2.17</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,48 +780,48 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>19/08/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>19/08/2023 03:14</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>19/08/2023 03:14</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:03</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>19/08/2023 03:14</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>3.98</v>
+        <v>3.14</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19/08/2023 03:14</t>
+          <t>19/08/2023 12:43</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-sunrise/8j5oa9Ep/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gorilla/GfsIGypI/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.94</v>
+        <v>6.85</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>6.49</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.02</v>
+        <v>4.52</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.24</v>
+        <v>3.85</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.92</v>
+        <v>1.45</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>APR</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>6.85</v>
+        <v>1.94</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6.49</v>
+        <v>2.18</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.52</v>
+        <v>3.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>3.24</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>3.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.45</v>
+        <v>2.92</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.57</v>
+        <v>1.95</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10/10/2023 14:49</t>
+          <t>10/10/2023 14:58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>10/10/2023 14:49</t>
+          <t>10/10/2023 14:58</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.81</v>
+        <v>5.03</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>10/10/2023 14:49</t>
+          <t>10/10/2023 14:57</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-gasogi-united/25OJHo5h/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-sunrise/AVRRFPZ4/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.95</v>
+        <v>2.57</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10/10/2023 14:58</t>
+          <t>10/10/2023 14:49</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>2.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10/10/2023 14:58</t>
+          <t>10/10/2023 14:49</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.39</v>
+        <v>2.57</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.03</v>
+        <v>2.81</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>10/10/2023 14:57</t>
+          <t>10/10/2023 14:49</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-sunrise/AVRRFPZ4/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-gasogi-united/25OJHo5h/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.91</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>21/10/2023 14:41</t>
+          <t>21/10/2023 14:38</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>21/10/2023 14:41</t>
+          <t>21/10/2023 14:38</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.44</v>
+        <v>3.29</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 14:41</t>
+          <t>21/10/2023 14:38</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-musanze/0fFhVJir/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-bugesera/4OTMztUK/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>2.3</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>20/10/2023 02:12</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:38</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:38</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
       <c r="T51" t="n">
-        <v>3.29</v>
+        <v>2.44</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>21/10/2023 14:38</t>
+          <t>21/10/2023 14:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-bugesera/4OTMztUK/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-musanze/0fFhVJir/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Amagaju</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 12:02</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.99</v>
+        <v>4.24</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.76</v>
+        <v>4.75</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>5.61</v>
+        <v>2.16</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.23</v>
+        <v>2.02</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.67</v>
+        <v>2.86</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.43</v>
+        <v>2.99</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.87</v>
+        <v>3.76</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.91</v>
+        <v>5.61</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.12</v>
+        <v>4.23</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.71</v>
+        <v>3.67</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:49</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.3</v>
+        <v>1.43</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.09</v>
+        <v>1.87</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,163 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:13</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="J65" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>03/11/2023 02:13</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>04/11/2023 11:35</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>03/11/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>04/11/2023 12:02</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>03/11/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>04/11/2023 11:35</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
+      <c r="J66" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-sunrise/GOjKAnBi/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>28/10/2023 14:10</t>
+          <t>28/10/2023 12:08</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2.89</v>
+        <v>3.15</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>28/10/2023 14:10</t>
+          <t>28/10/2023 13:02</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.69</v>
+        <v>4.1</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.16</v>
+        <v>5.02</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>28/10/2023 14:10</t>
+          <t>28/10/2023 12:08</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-amagaju/juh4mJDQ/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-etincelles/hlvWrwMs/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>28/10/2023 12:08</t>
+          <t>28/10/2023 14:10</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.15</v>
+        <v>2.89</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>28/10/2023 13:02</t>
+          <t>28/10/2023 14:10</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.1</v>
+        <v>3.69</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.02</v>
+        <v>4.16</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>28/10/2023 12:08</t>
+          <t>28/10/2023 14:10</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-etincelles/hlvWrwMs/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-amagaju/juh4mJDQ/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>04/11/2023 11:35</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.15</v>
+        <v>2.91</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>04/11/2023 12:02</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.24</v>
+        <v>2.99</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.75</v>
+        <v>3.76</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>04/11/2023 11:35</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.16</v>
+        <v>5.61</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.02</v>
+        <v>4.23</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.86</v>
+        <v>3.67</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.99</v>
+        <v>1.43</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.76</v>
+        <v>1.87</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>5.61</v>
+        <v>2.91</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.23</v>
+        <v>2.12</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.67</v>
+        <v>2.71</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:49</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.87</v>
+        <v>3.09</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Kiyovu</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.91</v>
+        <v>1.71</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.71</v>
+        <v>3.03</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/11/2023 13:49</t>
+          <t>04/11/2023 12:02</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.3</v>
+        <v>4.24</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.09</v>
+        <v>4.75</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,98 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-sunrise/GOjKAnBi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45254.58333333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>24/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>24/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>10/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>24/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-etoile-de-l-est/pIXDgfz0/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>01/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>2.18</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>01/09/2023 04:34</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:23</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>01/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>3.53</v>
+        <v>2.92</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.31</v>
+        <v>2.95</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.92</v>
+        <v>3.53</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.95</v>
+        <v>2.57</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10/10/2023 14:58</t>
+          <t>10/10/2023 14:49</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.36</v>
+        <v>2.56</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>10/10/2023 14:58</t>
+          <t>10/10/2023 14:49</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.39</v>
+        <v>2.57</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>5.03</v>
+        <v>2.81</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>10/10/2023 14:57</t>
+          <t>10/10/2023 14:49</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-sunrise/AVRRFPZ4/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-gasogi-united/25OJHo5h/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.57</v>
+        <v>1.95</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10/10/2023 14:49</t>
+          <t>10/10/2023 14:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10/10/2023 14:49</t>
+          <t>10/10/2023 14:58</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.81</v>
+        <v>5.03</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>10/10/2023 14:49</t>
+          <t>10/10/2023 14:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-gasogi-united/25OJHo5h/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-sunrise/AVRRFPZ4/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.81</v>
+        <v>1.53</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.14</v>
+        <v>1.69</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.41</v>
+        <v>4.88</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.25</v>
+        <v>4.66</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.21</v>
+        <v>2.41</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.53</v>
+        <v>2.99</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.69</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.41</v>
+        <v>2.78</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.88</v>
+        <v>2.21</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.66</v>
+        <v>2.54</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.42</v>
+        <v>2.07</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.66</v>
+        <v>2.45</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.87</v>
+        <v>2.91</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>2.3</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>20/10/2023 02:12</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:38</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:38</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
       <c r="T50" t="n">
-        <v>3.29</v>
+        <v>2.44</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>21/10/2023 14:38</t>
+          <t>21/10/2023 14:41</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-bugesera/4OTMztUK/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-musanze/0fFhVJir/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.91</v>
+        <v>2.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>21/10/2023 14:41</t>
+          <t>21/10/2023 14:38</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>21/10/2023 14:41</t>
+          <t>21/10/2023 14:38</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.44</v>
+        <v>3.29</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>21/10/2023 14:41</t>
+          <t>21/10/2023 14:38</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-musanze/0fFhVJir/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-bugesera/4OTMztUK/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>4.19</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.09</v>
+        <v>4.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.94</v>
+        <v>3.58</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.32</v>
+        <v>1.68</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.63</v>
+        <v>1.68</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-apr/rFSQZaqR/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>3</v>
       </c>
-      <c r="J53" t="n">
-        <v>4.19</v>
-      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.19</v>
+        <v>3</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-apr/rFSQZaqR/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>3.32</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.2</v>
+        <v>3.63</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.06</v>
+        <v>2.97</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.77</v>
+        <v>2.54</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.62</v>
+        <v>2.69</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="L60" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>2.97</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:46</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>2.6</v>
-      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.54</v>
+        <v>3.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.69</v>
+        <v>3.62</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,558 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/gorilla-etoile-de-l-est/pIXDgfz0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>12/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:04</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>12/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>12/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:04</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.41</v>
+        <v>2.21</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.25</v>
+        <v>2.54</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.21</v>
+        <v>2.41</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.66</v>
+        <v>2.45</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.87</v>
+        <v>2.91</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.42</v>
+        <v>2.07</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>4.19</v>
+        <v>1.97</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4.19</v>
+        <v>2.09</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.58</v>
+        <v>2.94</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.68</v>
+        <v>3.32</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.68</v>
+        <v>3.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>21/10/2023 07:28</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-apr/rFSQZaqR/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>4.19</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4.19</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 07:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-apr/rFSQZaqR/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.97</v>
+        <v>3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.32</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.63</v>
+        <v>2.2</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>4.18</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,48 +6668,48 @@
         </is>
       </c>
       <c r="L68" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>1.77</v>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>25/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="O68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>11/11/2023 03:13</t>
         </is>
       </c>
-      <c r="P68" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>25/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>11/11/2023 03:13</t>
-        </is>
-      </c>
       <c r="T68" t="n">
-        <v>4.74</v>
+        <v>2.38</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.42</v>
+        <v>4.63</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.9</v>
+        <v>4.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>4.18</v>
+        <v>1.99</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.12</v>
+        <v>2.4</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.77</v>
+        <v>3.42</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,98 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45258.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>28/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>28/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>28/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>28/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>28/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>28/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-rayon-sport/KMAts8XA/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.53</v>
+        <v>2.99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.69</v>
+        <v>2.75</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.41</v>
+        <v>2.78</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.88</v>
+        <v>2.21</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.66</v>
+        <v>2.54</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.99</v>
+        <v>1.53</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.75</v>
+        <v>1.69</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.78</v>
+        <v>3.41</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.21</v>
+        <v>4.88</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.54</v>
+        <v>4.66</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.66</v>
+        <v>1.97</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.04</v>
+        <v>2.07</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.87</v>
+        <v>3.49</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.78</v>
+        <v>2.01</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 12:02</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.54</v>
+        <v>3.39</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.01</v>
+        <v>2.78</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.05</v>
+        <v>2.97</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/10/2023 12:02</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.18</v>
+        <v>2.53</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.12</v>
+        <v>2.93</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.77</v>
+        <v>3.04</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.53</v>
+        <v>4.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.93</v>
+        <v>3.12</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.04</v>
+        <v>1.77</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.7</v>
+        <v>1.99</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.63</v>
+        <v>3.42</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.74</v>
+        <v>2.9</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.42</v>
+        <v>4.63</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.9</v>
+        <v>4.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
         </is>
       </c>
     </row>
@@ -7013,34 +7013,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.78</v>
+        <v>2.33</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -7048,36 +7048,36 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>26/11/2023 12:05</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.68</v>
+        <v>3.23</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.58</v>
+        <v>3.23</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-sunrise/llXxb9Ro/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.8</v>
+        <v>2.78</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.02</v>
+        <v>2.73</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 12:05</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.57</v>
+        <v>2.68</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.57</v>
+        <v>2.58</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
         </is>
       </c>
     </row>
@@ -7193,75 +7193,259 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
         <v>45258.58333333334</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Police</t>
         </is>
       </c>
-      <c r="G74" t="n">
+      <c r="G75" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Rayon Sport</t>
         </is>
       </c>
-      <c r="I74" t="n">
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J75" t="n">
         <v>2.73</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>28/11/2023 03:12</t>
         </is>
       </c>
-      <c r="L74" t="n">
+      <c r="L75" t="n">
         <v>2.6</v>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>28/11/2023 13:45</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="N75" t="n">
         <v>2.76</v>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>28/11/2023 03:12</t>
         </is>
       </c>
-      <c r="P74" t="n">
+      <c r="P75" t="n">
         <v>2.61</v>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>28/11/2023 13:45</t>
         </is>
       </c>
-      <c r="R74" t="n">
+      <c r="R75" t="n">
         <v>2.62</v>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>28/11/2023 03:12</t>
         </is>
       </c>
-      <c r="T74" t="n">
+      <c r="T75" t="n">
         <v>2.97</v>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>28/11/2023 13:45</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/police-rayon-sport/KMAts8XA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45259.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:33</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:33</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:33</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-apr/6J6xrlI4/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.66</v>
+        <v>1.97</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.04</v>
+        <v>2.07</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.87</v>
+        <v>3.49</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/10/2023 12:02</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.39</v>
+        <v>3.77</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.59</v>
+        <v>3.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.06</v>
+        <v>2.97</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.77</v>
+        <v>2.54</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.62</v>
+        <v>2.69</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.78</v>
+        <v>2.01</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 12:02</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.54</v>
+        <v>3.39</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,98 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-apr/6J6xrlI4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45261.70833333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-bugesera/dYbS8Qu4/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.94</v>
+        <v>3.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>3.51</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.24</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>6.85</v>
+        <v>1.81</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6.49</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.52</v>
+        <v>2.99</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.85</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>3.95</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.45</v>
+        <v>5.84</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.18</v>
+        <v>6.85</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.12</v>
+        <v>6.49</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.85</v>
+        <v>4.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.95</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.53</v>
+        <v>1.45</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.84</v>
+        <v>2.92</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.44</v>
+        <v>2.18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.51</v>
+        <v>2.12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>2.95</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>3.53</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.78</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.54</v>
+        <v>3.23</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.74</v>
+        <v>3.87</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.99</v>
+        <v>2.54</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.23</v>
+        <v>2.54</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.87</v>
+        <v>2.74</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.21</v>
+        <v>2.41</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>11/10/2023 11:11</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>11/10/2023 14:57</t>
+          <t>11/10/2023 14:10</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.53</v>
+        <v>2.99</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.69</v>
+        <v>2.75</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.41</v>
+        <v>2.78</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.88</v>
+        <v>2.21</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.66</v>
+        <v>2.54</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>11/10/2023 14:56</t>
+          <t>11/10/2023 14:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-as-kigali/QHn271so/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.81</v>
+        <v>1.53</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.14</v>
+        <v>1.69</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.41</v>
+        <v>4.88</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>11/10/2023 11:11</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.25</v>
+        <v>4.66</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>11/10/2023 14:10</t>
+          <t>11/10/2023 14:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-kiyovu/lMQVEqkB/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-muhazi-united/GrcSD34H/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.42</v>
+        <v>2.07</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/10/2023 14:45</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.66</v>
+        <v>2.45</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.87</v>
+        <v>2.91</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:45</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-muhazi-united/tjrSEb71/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>28/10/2023 12:08</t>
+          <t>28/10/2023 14:10</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.15</v>
+        <v>2.89</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>28/10/2023 13:02</t>
+          <t>28/10/2023 14:10</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.1</v>
+        <v>3.69</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.02</v>
+        <v>4.16</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>28/10/2023 12:08</t>
+          <t>28/10/2023 14:10</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-etincelles/hlvWrwMs/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-amagaju/juh4mJDQ/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>28/10/2023 14:10</t>
+          <t>28/10/2023 12:08</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.89</v>
+        <v>3.15</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>28/10/2023 14:10</t>
+          <t>28/10/2023 13:02</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.69</v>
+        <v>4.1</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.16</v>
+        <v>5.02</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>28/10/2023 14:10</t>
+          <t>28/10/2023 12:08</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-amagaju/juh4mJDQ/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-etincelles/hlvWrwMs/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 12:02</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.77</v>
+        <v>3.39</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="L60" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>2.97</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:46</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>2.6</v>
-      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.54</v>
+        <v>3.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.69</v>
+        <v>3.62</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.01</v>
+        <v>2.78</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.05</v>
+        <v>2.97</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/10/2023 12:02</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.53</v>
+        <v>4.18</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.93</v>
+        <v>3.12</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.63</v>
+        <v>2.74</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.04</v>
+        <v>1.77</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>4.18</v>
+        <v>2.53</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.12</v>
+        <v>2.93</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.77</v>
+        <v>3.04</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.42</v>
+        <v>4.63</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.9</v>
+        <v>4.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.7</v>
+        <v>1.99</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.63</v>
+        <v>3.42</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.74</v>
+        <v>2.9</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.78</v>
+        <v>1.8</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.73</v>
+        <v>3.02</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>26/11/2023 12:05</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.68</v>
+        <v>4.57</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.58</v>
+        <v>4.57</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.8</v>
+        <v>2.78</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.02</v>
+        <v>2.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 12:05</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.57</v>
+        <v>2.68</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.57</v>
+        <v>2.58</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,374 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-bugesera/dYbS8Qu4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:02</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-marines/zPcW7peA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:06</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:06</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-amagaju/4b2z74AG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:02</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-gorilla/rk1v6OPM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:37</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:37</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:37</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:37</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-gasogi-united/2ZsB02mp/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>14/10/2023 13:03</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.07</v>
+        <v>3.02</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 13:03</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.06</v>
+        <v>4.07</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.3</v>
+        <v>3.29</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.32</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.63</v>
+        <v>2.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>3.32</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.2</v>
+        <v>3.63</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5860,11 +5860,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/10/2023 12:02</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.39</v>
+        <v>3.77</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.59</v>
+        <v>3.62</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/10/2023 04:30</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.06</v>
+        <v>2.97</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.77</v>
+        <v>2.54</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.62</v>
+        <v>2.69</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.78</v>
+        <v>2.01</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 12:02</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.54</v>
+        <v>3.39</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 04:30</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-muhazi-united/hO8zty60/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Amagaju</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 12:02</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.99</v>
+        <v>4.24</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.76</v>
+        <v>4.75</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>5.61</v>
+        <v>2.91</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.23</v>
+        <v>2.12</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.67</v>
+        <v>2.71</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:49</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.87</v>
+        <v>3.09</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.91</v>
+        <v>5.61</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.12</v>
+        <v>4.23</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.71</v>
+        <v>3.67</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:49</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.3</v>
+        <v>1.43</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.09</v>
+        <v>1.87</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/11/2023 11:35</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>2.91</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/11/2023 12:02</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.24</v>
+        <v>2.99</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.75</v>
+        <v>3.76</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/11/2023 11:35</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.18</v>
+        <v>2.53</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.12</v>
+        <v>2.93</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.77</v>
+        <v>3.04</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.53</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.93</v>
+        <v>1.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.63</v>
+        <v>3.13</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.04</v>
+        <v>4.63</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.61</v>
+        <v>4.74</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.7</v>
+        <v>1.99</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.63</v>
+        <v>3.42</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.74</v>
+        <v>2.9</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.99</v>
+        <v>4.18</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.4</v>
+        <v>3.12</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.07</v>
+        <v>3.15</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.42</v>
+        <v>1.77</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
         </is>
       </c>
     </row>
@@ -7013,34 +7013,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.33</v>
+        <v>2.62</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>25/11/2023 13:20</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.33</v>
+        <v>2.78</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>25/11/2023 13:20</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -7048,36 +7048,36 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>25/11/2023 13:20</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>25/11/2023 13:20</t>
+          <t>26/11/2023 12:05</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.23</v>
+        <v>2.68</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>25/11/2023 13:20</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.23</v>
+        <v>2.58</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>25/11/2023 13:20</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-sunrise/llXxb9Ro/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
         </is>
       </c>
     </row>
@@ -7197,34 +7197,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.78</v>
+        <v>2.33</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -7232,36 +7232,36 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>26/11/2023 12:05</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.68</v>
+        <v>3.23</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.58</v>
+        <v>3.23</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>25/11/2023 13:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-sunrise/llXxb9Ro/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,63 +7665,63 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>25/11/2023 12:06</t>
+          <t>25/11/2023 12:05</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/11/2023 12:06</t>
+          <t>25/11/2023 12:05</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-amagaju/4b2z74AG/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-gasogi-united/2ZsB02mp/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,23 +7780,23 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>2.76</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>25/11/2023 12:02</t>
+          <t>25/11/2023 12:06</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.18</v>
+        <v>2.76</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>25/11/2023 12:02</t>
+          <t>25/11/2023 12:06</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.49</v>
+        <v>2.91</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.49</v>
+        <v>2.91</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-gorilla/rk1v6OPM/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-amagaju/4b2z74AG/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,155 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.67</v>
+        <v>1.71</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.67</v>
+        <v>1.71</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.58</v>
+        <v>3.18</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>25/11/2023 12:05</t>
+          <t>25/11/2023 12:02</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2.58</v>
+        <v>3.18</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>25/11/2023 12:05</t>
+          <t>25/11/2023 12:02</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.87</v>
+        <v>4.49</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.87</v>
+        <v>4.49</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-gasogi-united/2ZsB02mp/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-gorilla/rk1v6OPM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45262.70833333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-apr/QDjq5ruT/</t>
         </is>
       </c>
     </row>

--- a/2023/rwanda_premier-league_2023-2024.xlsx
+++ b/2023/rwanda_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>26/08/2023 06:44</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>26/08/2023 13:07</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.77</v>
+        <v>3.7</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.8</v>
+        <v>2.99</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>26/08/2023 06:44</t>
+          <t>26/08/2023 14:54</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-marines/byrcH8zT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-as-kigali/hvukJU5G/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 06:44</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 13:07</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.7</v>
+        <v>2.77</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.99</v>
+        <v>3.8</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 14:54</t>
+          <t>26/08/2023 06:44</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-as-kigali/hvukJU5G/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-marines/byrcH8zT/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.44</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.51</v>
+        <v>2.12</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:23</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>2.95</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>3.53</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>01/09/2023 15:26</t>
+          <t>02/09/2023 14:15</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.84</v>
+        <v>2.92</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>01/09/2023 04:34</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>APR</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>6.85</v>
+        <v>3.44</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6.49</v>
+        <v>3.51</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.52</v>
+        <v>2.81</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:59</t>
+          <t>02/09/2023 13:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:13</t>
+          <t>01/09/2023 03:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>02/09/2023 14:58</t>
+          <t>01/09/2023 15:26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-kiyovu/23ZRVM7C/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>02/09/2023 13:05</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.92</v>
+        <v>5.84</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>01/09/2023 04:34</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etincelles/d6hkmOxm/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-gasogi-united/CYGIhpFP/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.18</v>
+        <v>6.85</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.12</v>
+        <v>6.49</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.85</v>
+        <v>4.52</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:23</t>
+          <t>02/09/2023 14:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.95</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/09/2023 03:13</t>
+          <t>02/09/2023 14:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.53</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/09/2023 14:15</t>
+          <t>02/09/2023 14:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-sunrise/OINzU0xP/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-apr/Es3pl4Nt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.99</v>
+        <v>2.54</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.23</v>
+        <v>2.54</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.87</v>
+        <v>2.74</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 14:11</t>
+          <t>03/09/2023 14:05</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.78</v>
+        <v>2.97</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.54</v>
+        <v>3.23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.74</v>
+        <v>3.87</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>03/09/2023 14:05</t>
+          <t>03/09/2023 14:11</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rwamagana-city-gorilla/pSOWUtNI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-mukura-victory-sports/l0VNW2h6/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Rwamagana City</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.79</v>
+        <v>1.91</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16/09/2023 05:37</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>16/09/2023 13:04</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.37</v>
+        <v>3.7</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>15/09/2023 03:12</t>
+          <t>16/09/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>16/09/2023 05:37</t>
+          <t>16/09/2023 14:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-bugesera/tff1pMM5/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-rwamagana-city/Cx5MoWIu/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rwamagana City</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>2.79</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 05:37</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.11</v>
+        <v>2.73</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.18</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 13:04</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>16/09/2023 13:12</t>
+          <t>15/09/2023 03:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 14:55</t>
+          <t>16/09/2023 05:37</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-rwamagana-city/Cx5MoWIu/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-bugesera/tff1pMM5/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 13:03</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>14/10/2023 14:39</t>
+          <t>14/10/2023 01:22</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>14/10/2023 13:03</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.07</v>
+        <v>3.06</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>14/10/2023 01:22</t>
+          <t>14/10/2023 14:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-gorilla/EZEvO2pF/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.01</v>
+        <v>2.92</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.29</v>
+        <v>4.3</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>14/10/2023 14:26</t>
+          <t>14/10/2023 14:39</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-amagaju/A18mMtFR/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-etincelles/SxJrNMaL/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.97</v>
+        <v>3.66</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.07</v>
+        <v>3.04</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2.81</v>
+        <v>2.4</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/10/2023 13:01</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/10/2023 11:02</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Rayon Sport</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.66</v>
+        <v>1.97</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.04</v>
+        <v>2.07</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 13:01</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.87</v>
+        <v>3.49</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 11:02</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-rayon-sport/bRhNFvhe/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-police/KzfJGKxk/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,63 +5181,63 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>3.32</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.2</v>
+        <v>3.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>21/10/2023 14:10</t>
+          <t>22/10/2023 14:25</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.97</v>
+        <v>3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.32</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.63</v>
+        <v>2.2</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/10/2023 14:25</t>
+          <t>21/10/2023 14:10</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-gorilla/CUIdUw7l/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-as-kigali/Yq75SHy1/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>2.78</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.06</v>
+        <v>2.97</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.77</v>
+        <v>2.54</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.62</v>
+        <v>2.69</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/10/2023 13:56</t>
+          <t>29/10/2023 13:46</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="L60" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>2.97</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:46</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>2.6</v>
-      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.54</v>
+        <v>3.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.69</v>
+        <v>3.62</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/10/2023 13:46</t>
+          <t>29/10/2023 13:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-as-kigali/6RCvueL6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-rayon-sport/b19WtHjf/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>04/11/2023 11:35</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.15</v>
+        <v>2.91</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>04/11/2023 12:02</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.24</v>
+        <v>2.99</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.75</v>
+        <v>3.76</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>04/11/2023 11:35</t>
+          <t>04/11/2023 13:04</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Kiyovu</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.91</v>
+        <v>5.61</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.12</v>
+        <v>4.23</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.71</v>
+        <v>3.67</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:49</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.3</v>
+        <v>1.43</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.09</v>
+        <v>1.87</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>04/11/2023 13:13</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Kiyovu</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>5.61</v>
+        <v>2.91</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.23</v>
+        <v>2.12</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.67</v>
+        <v>2.71</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:49</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.87</v>
+        <v>3.09</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:13</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-apr/ryM5iPAT/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-kiyovu/OU3YnqJp/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Amagaju</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 12:02</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.99</v>
+        <v>4.24</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.76</v>
+        <v>4.75</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>04/11/2023 13:04</t>
+          <t>04/11/2023 11:35</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-amagaju/ANNcgotH/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-mukura-victory-sports/4pN1h5eN/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Bugesera</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Police</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.53</v>
+        <v>1.99</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.63</v>
+        <v>3.07</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.04</v>
+        <v>3.42</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>25/11/2023 12:44</t>
+          <t>11/11/2023 03:13</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>25/11/2023 13:16</t>
+          <t>25/11/2023 13:54</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>Etincelles</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>4.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>11/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>1.77</v>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>25/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="O69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>11/11/2023 03:13</t>
         </is>
       </c>
-      <c r="P69" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>25/11/2023 12:54</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>11/11/2023 03:13</t>
-        </is>
-      </c>
       <c r="T69" t="n">
-        <v>4.74</v>
+        <v>2.38</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>25/11/2023 12:54</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.42</v>
+        <v>4.63</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.9</v>
+        <v>4.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>25/11/2023 13:54</t>
+          <t>25/11/2023 12:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-marines/2gSIhEk6/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-as-kigali/nqgfZPlo/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>4.18</v>
+        <v>2.53</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.12</v>
+        <v>2.93</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.77</v>
+        <v>3.04</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>11/11/2023 03:13</t>
+          <t>25/11/2023 12:44</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:16</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-rayon-sport/tpRMiY4C/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-police/z7QQjhKI/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Mukura Victory Sports</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Muhazi United</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.78</v>
+        <v>1.8</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.73</v>
+        <v>3.02</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>26/11/2023 12:05</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.68</v>
+        <v>4.57</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>12/11/2023 03:12</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.58</v>
+        <v>4.57</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>26/11/2023 10:04</t>
+          <t>12/11/2023 13:03</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mukura Victory Sports</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Muhazi United</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.8</v>
+        <v>2.78</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.02</v>
+        <v>2.73</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 12:05</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.57</v>
+        <v>2.68</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>12/11/2023 03:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.57</v>
+        <v>2.58</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>12/11/2023 13:03</t>
+          <t>26/11/2023 10:04</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-muhazi-united/z5Vpdmdb/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-musanze/SvWtcTth/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>Etoile de L'Est</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Amagaju</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,23 +7596,23 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.23</v>
+        <v>2.76</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>25/11/2023 12:02</t>
+          <t>25/11/2023 12:06</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.23</v>
+        <v>2.76</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/11/2023 12:02</t>
+          <t>25/11/2023 12:06</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.02</v>
+        <v>2.91</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.02</v>
+        <v>2.91</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-marines/zPcW7peA/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-amagaju/4b2z74AG/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Musanze</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,63 +7665,63 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Gasogi United</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.67</v>
+        <v>1.71</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.67</v>
+        <v>1.71</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.58</v>
+        <v>3.18</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>25/11/2023 12:05</t>
+          <t>25/11/2023 12:02</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.58</v>
+        <v>3.18</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/11/2023 12:05</t>
+          <t>25/11/2023 12:02</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.87</v>
+        <v>4.49</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.87</v>
+        <v>4.49</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/11/2023 03:37</t>
+          <t>25/11/2023 03:13</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-gasogi-united/2ZsB02mp/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-gorilla/rk1v6OPM/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Etoile de L'Est</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Amagaju</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,23 +7780,23 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.76</v>
+        <v>3.23</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>25/11/2023 12:06</t>
+          <t>25/11/2023 12:02</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>2.76</v>
+        <v>3.23</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>25/11/2023 12:06</t>
+          <t>25/11/2023 12:02</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.91</v>
+        <v>4.02</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.91</v>
+        <v>4.02</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/etoile-de-l-est-amagaju/4b2z74AG/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-marines/zPcW7peA/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Musanze</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Gasogi United</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.71</v>
+        <v>2.67</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.71</v>
+        <v>2.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.18</v>
+        <v>2.58</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>25/11/2023 12:02</t>
+          <t>25/11/2023 12:05</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.18</v>
+        <v>2.58</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>25/11/2023 12:02</t>
+          <t>25/11/2023 12:05</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.49</v>
+        <v>2.87</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.49</v>
+        <v>2.87</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>25/11/2023 03:13</t>
+          <t>25/11/2023 03:37</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/rwanda/premier-league/musanze-gorilla/rk1v6OPM/</t>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/sunrise-gasogi-united/2ZsB02mp/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,1018 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/rwanda/premier-league/kiyovu-apr/QDjq5ruT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>26/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>26/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/as-kigali-mukura-victory-sports/zmtJbtId/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Muhazi United</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>26/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>26/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>26/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>26/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>26/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>26/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/muhazi-united-etincelles/ddsFaM2j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45265.58333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Amagaju</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/amagaju-musanze/hlGalvAe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45265.58333333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/bugesera-police/WYRjj0uq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45265.58333333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Etoile de L'Est</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/marines-etoile-de-l-est/APQfkKfk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45265.70833333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>05/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>05/12/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>05/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>05/12/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>05/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>05/12/2023 16:49</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/apr-gasogi-united/dI6kB1H8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>06/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>06/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/gasogi-united-mukura-victory-sports/n7a28a1R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45272.58333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Mukura Victory Sports</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Gorilla</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>09/12/2023 08:08</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>09/12/2023 08:08</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/mukura-victory-sports-gorilla/44c45Wpm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45272.58333333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Musanze</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:48</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:48</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:48</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:48</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:48</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:48</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/police-musanze/I7NwKVat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45272.70833333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Rayon Sport</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kiyovu</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>12/12/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>12/12/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>12/12/2023 15:03</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>12/12/2023 16:34</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/rayon-sport-kiyovu/Muh94j0g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45273.58333333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Etincelles</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Gasogi United</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>10/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>13/12/2023 12:01</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>10/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>13/12/2023 12:38</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>10/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>13/12/2023 12:38</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/rwanda/premier-league/etincelles-gasogi-united/SrrUaSEO/</t>
         </is>
       </c>
     </row>
